--- a/reportes/condiciones.xlsx
+++ b/reportes/condiciones.xlsx
@@ -3,14 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73446111-9A5F-4D64-964E-12245938C955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B33D75-E1FF-41F2-BBFF-E25784452773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="1" r:id="rId1"/>
     <sheet name="CGM" sheetId="2" r:id="rId2"/>
+    <sheet name="PLATAFORMAS" sheetId="3" r:id="rId3"/>
+    <sheet name="ASIGNATARIOS" sheetId="4" r:id="rId4"/>
+    <sheet name="GRUPOS" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PLATAFORMAS!$A$1:$A$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="466">
   <si>
     <t>pagina de contingencia</t>
   </si>
@@ -320,9 +326,6 @@
     <t>predictive insight|Predictive Insights</t>
   </si>
   <si>
-    <t>file system|fiesystem|filesystem.?|file(?:\\W+)system|%\\W+(?:\\w+\\W+){0,3}?FS\\W+(?:\\w+\\W+){0,3}?\\/|depuración del FS</t>
-  </si>
-  <si>
     <t>alto consumo cpu|alto consumo de cpu|cpu|cpu .+idle|procesamiento\\W+(?:\\w+\\W+){0,3}?cpu\\b|consumo\\W+(?:\\w+\\W+){0,3}?cpu\\b|cpu\\W+(?:\\w+\\W+){0,3}?utilization\\b|cpu\\W+(?:\\w+\\W+){0,20}?er.{0,}?</t>
   </si>
   <si>
@@ -354,6 +357,1074 @@
   </si>
   <si>
     <t>base[a-z]? de dato[a-z]?</t>
+  </si>
+  <si>
+    <t>pseries</t>
+  </si>
+  <si>
+    <t>iseries</t>
+  </si>
+  <si>
+    <t>integracion</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>zseries</t>
+  </si>
+  <si>
+    <t>portales</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>tapeless</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>smi</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>tsm</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>soa</t>
+  </si>
+  <si>
+    <t>stratus</t>
+  </si>
+  <si>
+    <t>Mariano Jose</t>
+  </si>
+  <si>
+    <t>Gustavo Alberto Osorio Vasquez</t>
+  </si>
+  <si>
+    <t>Mario Junior Garcia Gomez</t>
+  </si>
+  <si>
+    <t>Anderson Mauricio Hernandez Arboleda</t>
+  </si>
+  <si>
+    <t>Luisa Fernanda Gallego Norena</t>
+  </si>
+  <si>
+    <t>Luis Gabriel Malagon Diaz</t>
+  </si>
+  <si>
+    <t>Luz Angela Martinez Salazar</t>
+  </si>
+  <si>
+    <t>Diana Lopez Parra</t>
+  </si>
+  <si>
+    <t>Julian Alexander Acevedo Munera</t>
+  </si>
+  <si>
+    <t>Cesar Andres Herrera Ramirez</t>
+  </si>
+  <si>
+    <t>Javier Leon Saez Pedraza</t>
+  </si>
+  <si>
+    <t>Jhon Alejandro Montoya Ramos</t>
+  </si>
+  <si>
+    <t>Victor Hugo Cardona Murillo</t>
+  </si>
+  <si>
+    <t>Juan Felipe Reyes Marles</t>
+  </si>
+  <si>
+    <t>Maicol Alberto Cuastuza Lopez</t>
+  </si>
+  <si>
+    <t>Elkin Ramon Gil Quiroga</t>
+  </si>
+  <si>
+    <t>John Alexander Ossa Jeronimo</t>
+  </si>
+  <si>
+    <t>Wilson Ferney Loaiza Velez</t>
+  </si>
+  <si>
+    <t>Edwin Jovan Betancur Ospina</t>
+  </si>
+  <si>
+    <t>Jesus Ernesto Monsalve Caraballo</t>
+  </si>
+  <si>
+    <t>Juanita Abad Ramirez</t>
+  </si>
+  <si>
+    <t>Sair Antonio Pajaro Castillo</t>
+  </si>
+  <si>
+    <t>Jessica Johanna Santamaria Estrada</t>
+  </si>
+  <si>
+    <t>William Osler Alzate Alzate</t>
+  </si>
+  <si>
+    <t>Francisco Javier Mendoza Mendoza</t>
+  </si>
+  <si>
+    <t>Edisson Javier Moreno Durango</t>
+  </si>
+  <si>
+    <t>Javier Ignacio Saldarriaga Gonzalez</t>
+  </si>
+  <si>
+    <t>Ivan Dario Martinez Granada</t>
+  </si>
+  <si>
+    <t>Jonathan Piedrahita Villa</t>
+  </si>
+  <si>
+    <t>Cesar Augusto Ossa Restrepo</t>
+  </si>
+  <si>
+    <t>Juan Diego Ospina Gomez</t>
+  </si>
+  <si>
+    <t>Mary Luz Arenas Velasquez</t>
+  </si>
+  <si>
+    <t>Julio Cesar Montoya Quiroz</t>
+  </si>
+  <si>
+    <t>Jose Abel Florez Pizarro</t>
+  </si>
+  <si>
+    <t>Luis Felipe Rodriguez Urrego</t>
+  </si>
+  <si>
+    <t>Jorge Armando Garcia Yepes</t>
+  </si>
+  <si>
+    <t>Jairo Alonso Martinez Mantilla</t>
+  </si>
+  <si>
+    <t>Liliana Maria Toro Toro</t>
+  </si>
+  <si>
+    <t>Juan Esteban Salazar Herrera</t>
+  </si>
+  <si>
+    <t>Juan Diego Betancur Urrea</t>
+  </si>
+  <si>
+    <t>Sergio Alejandro Quintero Mejia</t>
+  </si>
+  <si>
+    <t>Manuel Fernando Munoz Hernandez</t>
+  </si>
+  <si>
+    <t>Juan Rafael Bermudez Agudelo</t>
+  </si>
+  <si>
+    <t>Carlos Arturo Barrera Torres</t>
+  </si>
+  <si>
+    <t>Jorge Enrique Pineda Lopez</t>
+  </si>
+  <si>
+    <t>Jonathan Mauricio Arboleda Zuluaga</t>
+  </si>
+  <si>
+    <t>Jhon Faber Grisales Patiño</t>
+  </si>
+  <si>
+    <t>Andres Camilo Marin Franco</t>
+  </si>
+  <si>
+    <t>Martin Alonso Restrepo Ruiz</t>
+  </si>
+  <si>
+    <t>Robert Henry Jaramillo Mejia</t>
+  </si>
+  <si>
+    <t>Monica Maria Gallego Gomez</t>
+  </si>
+  <si>
+    <t>John Jairo Acevedo Lopez</t>
+  </si>
+  <si>
+    <t>Guillermo Andres Esguerra Bautista</t>
+  </si>
+  <si>
+    <t>Andres David Mejia Herrera</t>
+  </si>
+  <si>
+    <t>Ricardo Villalobos Ramirez</t>
+  </si>
+  <si>
+    <t>Gustavo Mantilla Pabon</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Osuna Garzon</t>
+  </si>
+  <si>
+    <t>Robert Martin Cartaya Hernandez</t>
+  </si>
+  <si>
+    <t>Jesus Ricardo Cardona Botero</t>
+  </si>
+  <si>
+    <t>Jorge Hugo Arango Vargas</t>
+  </si>
+  <si>
+    <t>James Orlando Rengifo Mejia</t>
+  </si>
+  <si>
+    <t>Guillermo Villegas Gamboa</t>
+  </si>
+  <si>
+    <t>Ariosto Galvis Rosado</t>
+  </si>
+  <si>
+    <t>Juan Pablo Rios Jaramillo</t>
+  </si>
+  <si>
+    <t>Tomas Cipriano Jaramillo Restrepo</t>
+  </si>
+  <si>
+    <t>Nestor Mauricio Bohorquez Idarraga</t>
+  </si>
+  <si>
+    <t>Ivan Dario Madrigal Gonzalez</t>
+  </si>
+  <si>
+    <t>Andres Felipe Cadavid Alvarez</t>
+  </si>
+  <si>
+    <t>Yadimir Enrique Molina Papamija</t>
+  </si>
+  <si>
+    <t>Alvaro Andres Lopez Arias</t>
+  </si>
+  <si>
+    <t>Diego Alexander Mendoza Jabe</t>
+  </si>
+  <si>
+    <t>Juan Bautista Martinez Suarez</t>
+  </si>
+  <si>
+    <t>Lucas Vallejo Uribe</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>INTEGRACION</t>
+  </si>
+  <si>
+    <t>ISERIES</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>TAPELESS</t>
+  </si>
+  <si>
+    <t>Disponibilidad Almacenamiento y CP BACKUP IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Almacenamiento y CP STORAGE IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Bases de Datos e Infraestructura Aplicativa WebSphere PI IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Bases de Datos SAP IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Infraestructura Aplicativa SAP IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas Pseries IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Iseries IBM</t>
+  </si>
+  <si>
+    <t>Infraestructura Banistmo Plataforma Integracion IBM</t>
+  </si>
+  <si>
+    <t>INTEGRACION - BANISTMO</t>
+  </si>
+  <si>
+    <t>OC Administradores ISeries IBM</t>
+  </si>
+  <si>
+    <t>OC Catalogación i-Series IBM</t>
+  </si>
+  <si>
+    <t>OC Dispacher IBM</t>
+  </si>
+  <si>
+    <t>OC Dispacher IBM – zSeries</t>
+  </si>
+  <si>
+    <t>ZSERIES</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP BACKUP IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP Distpacher iSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Base de Datos SAP IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Continuidad TI Distpacher DR IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Distpacher Integracion</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Plataforma Integracion Dispacher</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Plataforma Integracion IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Base de Datos Authentic IBM</t>
+  </si>
+  <si>
+    <t>AUTHENTIC</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Dispacher Authentic IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Pseries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Sistema Operativo Authentic IBM</t>
+  </si>
+  <si>
+    <t>OC Implementadores Contenidos IBM</t>
+  </si>
+  <si>
+    <t>PORTALES</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Banistmo Zseries - IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plantaformas centrales Gestion  IRM - IBM</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales  Monitoreo Admin Herramientas IBM</t>
+  </si>
+  <si>
+    <t>MONITOREO</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Actualizacion y Aseguramiento SCoA&amp;D IBM</t>
+  </si>
+  <si>
+    <t>SCOA&amp;D</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Almacenamiento y Respaldos IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Clear Path DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales de Integracion Validacion Usuarios IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales DR- Lider Tecnico IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Firewall DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Gestion Configuracion y Activos IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Integración Harvest IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales ISeries - Lider Tecnico IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries Base de Datos IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales iseries DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries Mimix IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries Operacion IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries Sistema Operativo IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Networking DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales pSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Storage DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Stratus DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Thales DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Unix-Aix-solarix DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Windows DR IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura SAP</t>
+  </si>
+  <si>
+    <t>OC Jefes Plataforma de Integración IBM</t>
+  </si>
+  <si>
+    <t>OC Jefes Plataforma pSeries IBM</t>
+  </si>
+  <si>
+    <t>OC_Infraestructura Plataformas Centrales Iseries Backup IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Clientes Personas Sitio Web Bancolombia IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas Base de Datos Authentic IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas DevOps IBM</t>
+  </si>
+  <si>
+    <t>DEVOPS</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas DR IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas Monitoreo Admin Herramientas IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Abiertas Sistema Operativo Authentic IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Iseries Mimix IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataformas Centrales Iseries Operacion IBM</t>
+  </si>
+  <si>
+    <t>Infraestructura Banistmo Plataforma Zseries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP Analistas Iseries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP Jefes Plataforma Respaldos IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Plataforma Integracion Validacion Usuarios IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Dispatcher pSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Seguridad Pseries IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Ing Plataforma IBM DRP</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa SAP IBM</t>
+  </si>
+  <si>
+    <t>PREGUNTAR</t>
+  </si>
+  <si>
+    <t>SAP BD</t>
+  </si>
+  <si>
+    <t>PSERIES - INTEGRACION</t>
+  </si>
+  <si>
+    <t>ISERIES OPERACIÓN</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plantaformas centrales Gestion IRM - IBM</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Monitoreo Admin Herramientas IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Base de Datos Optim IBM</t>
+  </si>
+  <si>
+    <t>OPTIM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales iSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Sterling IBM</t>
+  </si>
+  <si>
+    <t>STERLING</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Plataformas Centrales Abiertas Wintel IBM</t>
+  </si>
+  <si>
+    <t>INTEL</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura Authentic Base de Datos IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura pSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Integrales Respaldos IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP Storage IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Integrales DevOps IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Base de Datos Optim IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Base de Datos Sterling IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Infraestructura Aplicativa Authentic Base de Datos IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Infraestructura Aplicativa Authentic Sistema Operativo IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Infraestructura Aplicativa Sterling IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Plataforma y Colaboracion INTEL IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Infraestructura Monitoreo Admin Herramientas IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Infraestructura pSeries IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Infraestructura zSeries IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales Contenidos IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales DevOps IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales DR IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales IBM Dynamic</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales iSeries Replicas IBM</t>
+  </si>
+  <si>
+    <t>Disponibilidad Servicios Integrales Respaldos IBM</t>
+  </si>
+  <si>
+    <t>Ingenieria TI DevOps RTC IBM</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>OC Certificacion DevOps RTC IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Almacenamiento y CP Dispacher Portales IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Base de Datos Dispatcher Optim IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Continuidad TI CRO IBM</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Almacenamiento Sterling IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Authentic Base de Datos IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Authentic Dispacher IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Authentic Sistema Operativo IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Base de Datos Sterling IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Distpacher Sterling IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Infraestructura Aplicativa Operativo Sterling IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura pSeries Dispatcher IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura Wintel IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura zSeries Dispacher IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Infraestructura zSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Integrales Contenidos IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Integrales Distpacher iSeries IBM</t>
+  </si>
+  <si>
+    <t>OC Disponibilidad Servicios Integrales Orquestacion IBM</t>
+  </si>
+  <si>
+    <t>ORQUESTACION</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>OC Infraestructura Plataformas Centrales Iseries Backup IBM</t>
+  </si>
+  <si>
+    <t>OC Servicios Tecnologia de Informacion Journey to the Cloud Operation IBM</t>
+  </si>
+  <si>
+    <t>CLOUD</t>
+  </si>
+  <si>
+    <t>PROCESOS</t>
+  </si>
+  <si>
+    <t>INTERGRUPO</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jaqueline Aguilar Sonia</t>
+  </si>
+  <si>
+    <t>Sandra Liliana Aguirre Munoz</t>
+  </si>
+  <si>
+    <t>Juan Carlos Ahumada Jimenez</t>
+  </si>
+  <si>
+    <t>Ignacio Aramburu Agustin</t>
+  </si>
+  <si>
+    <t>Jorge Andres Araujo Bernal</t>
+  </si>
+  <si>
+    <t>Ana Isabel Arias Bedoya</t>
+  </si>
+  <si>
+    <t>Juan David Aristizabal Ocampo</t>
+  </si>
+  <si>
+    <t>Leonardo Luis Avila Martinez</t>
+  </si>
+  <si>
+    <t>David Alfonso Barrera Leon</t>
+  </si>
+  <si>
+    <t>Yeison David Barrera Londoño</t>
+  </si>
+  <si>
+    <t>Ivan Donato Benitez Florez</t>
+  </si>
+  <si>
+    <t>Juan Betancur Urrea</t>
+  </si>
+  <si>
+    <t>Sandra Milena Bonilla Rivas</t>
+  </si>
+  <si>
+    <t>Diego Bravo Fique</t>
+  </si>
+  <si>
+    <t>Javier Mauricio Builes Lopez</t>
+  </si>
+  <si>
+    <t>Gabriel Jaime Buitrago Ortega</t>
+  </si>
+  <si>
+    <t>Mauricio Cadavid Zuluaga</t>
+  </si>
+  <si>
+    <t>Gustavo Eduardo Canizares Leiva</t>
+  </si>
+  <si>
+    <t>Liliana Maria Carvajal Osorio</t>
+  </si>
+  <si>
+    <t>Sergio Andres Duque Galeano</t>
+  </si>
+  <si>
+    <t>Sergio Andres Durier Montoya</t>
+  </si>
+  <si>
+    <t>Monica Maria Echeverry Cardona</t>
+  </si>
+  <si>
+    <t>Antonio Jose Florez Benjumea</t>
+  </si>
+  <si>
+    <t>Carrillo, Florez</t>
+  </si>
+  <si>
+    <t>Otoniel Fonseca Segundo</t>
+  </si>
+  <si>
+    <t>Jorge Armando Garcia Yepez</t>
+  </si>
+  <si>
+    <t>Acosta, Gascue</t>
+  </si>
+  <si>
+    <t>Andres Alexander Gil Carvajal</t>
+  </si>
+  <si>
+    <t>Andres Felipe Guzman Bedoya</t>
+  </si>
+  <si>
+    <t>Jaime Andres Hincapie Restrepo</t>
+  </si>
+  <si>
+    <t>Jiner Javier Hurtado Cruz</t>
+  </si>
+  <si>
+    <t>Carlos Alban Jaramillo Araque</t>
+  </si>
+  <si>
+    <t>Sebastian Jaramillo Valderrama</t>
+  </si>
+  <si>
+    <t>Agudelo, Jimenez</t>
+  </si>
+  <si>
+    <t>Monica Marcela Landinez Vega</t>
+  </si>
+  <si>
+    <t>Juan Carlos Londono Rios</t>
+  </si>
+  <si>
+    <t>Jhon Fredy Londono Villa</t>
+  </si>
+  <si>
+    <t>de Lopez</t>
+  </si>
+  <si>
+    <t>Jose Mario Lopez Posada</t>
+  </si>
+  <si>
+    <t>Jose Luis Lozano Suarez</t>
+  </si>
+  <si>
+    <t>Juan Pablo Manzo Ramirez</t>
+  </si>
+  <si>
+    <t>Diego Marin Correa</t>
+  </si>
+  <si>
+    <t>Victor Manuel Medina Araque</t>
+  </si>
+  <si>
+    <t>Vilma Catalina Medina Rivera</t>
+  </si>
+  <si>
+    <t>Daniel Alfredo Mendez Rios</t>
+  </si>
+  <si>
+    <t>Lina Marcela Munera Munera</t>
+  </si>
+  <si>
+    <t>Manuel Munoz Hernandez</t>
+  </si>
+  <si>
+    <t>Paula Veronica Navarro Meirreles</t>
+  </si>
+  <si>
+    <t>Jorge Eduardo Ojeda Alarcon</t>
+  </si>
+  <si>
+    <t>Victor Alfonso Orrego Sanchez</t>
+  </si>
+  <si>
+    <t>Sandra Milena Osorio Gomez</t>
+  </si>
+  <si>
+    <t>Alexander Ospina Montes</t>
+  </si>
+  <si>
+    <t>Mariano Paciaroni</t>
+  </si>
+  <si>
+    <t>William Aldey Panche Camelo</t>
+  </si>
+  <si>
+    <t>Ramón Eduardo Parra Vera</t>
+  </si>
+  <si>
+    <t>Diana Rocio Parroquiano Roa</t>
+  </si>
+  <si>
+    <t>Edwin Arbey Patino Cano</t>
+  </si>
+  <si>
+    <t>Jorge Willian Pava Hernandez</t>
+  </si>
+  <si>
+    <t>Astrid Rocio Peña Rojas</t>
+  </si>
+  <si>
+    <t>Jhenson Javier Peña Vargas</t>
+  </si>
+  <si>
+    <t>Santiago Peralta</t>
+  </si>
+  <si>
+    <t>Humberto Pineda Cespedes</t>
+  </si>
+  <si>
+    <t>John Alexander Pineros Henao</t>
+  </si>
+  <si>
+    <t>Sergio Andres Posada Mayorquin</t>
+  </si>
+  <si>
+    <t>Sergio Quintero Mejia</t>
+  </si>
+  <si>
+    <t>Edwin Alberto Quiroz Velez</t>
+  </si>
+  <si>
+    <t>Daniel Santiago Ramirez Lopez</t>
+  </si>
+  <si>
+    <t>Luis Eduardo Rivera Molina</t>
+  </si>
+  <si>
+    <t>David Rodriguez Hernandez</t>
+  </si>
+  <si>
+    <t>Hugo Angel Rodriguez Rodriguez</t>
+  </si>
+  <si>
+    <t>Felipe Rojas Diego</t>
+  </si>
+  <si>
+    <t>Brayan Rubiano</t>
+  </si>
+  <si>
+    <t>Leonardo Luciano Ruiz Alviz</t>
+  </si>
+  <si>
+    <t>Carolina Ruiz Orjuela</t>
+  </si>
+  <si>
+    <t>Juan Salazar Herrera</t>
+  </si>
+  <si>
+    <t>Miguel Emmanuel Salazar Pérez</t>
+  </si>
+  <si>
+    <t>Diana Carolina Serna Escobar</t>
+  </si>
+  <si>
+    <t>David Silva Pelaez</t>
+  </si>
+  <si>
+    <t>Belen Spasiuk Ana</t>
+  </si>
+  <si>
+    <t>Gerardo Arturo Toro Salfate</t>
+  </si>
+  <si>
+    <t>Ruth Mary Torres Pardo</t>
+  </si>
+  <si>
+    <t>Wiligton Oswaldo Uribe Rodriguez</t>
+  </si>
+  <si>
+    <t>Guillermo Valencia Ortiz</t>
+  </si>
+  <si>
+    <t>Carmen Liliana Walteros Rangel</t>
+  </si>
+  <si>
+    <t>Fernando Zapata Zapata</t>
+  </si>
+  <si>
+    <t>Diego Alexander Carmona Diaz</t>
+  </si>
+  <si>
+    <t>Andres Felipe Aristizabal Hernandez</t>
+  </si>
+  <si>
+    <t>Mariano Hernan Gazzola Pastore</t>
+  </si>
+  <si>
+    <t>Osman Leonardo Gutierrez Diaz</t>
+  </si>
+  <si>
+    <t>Ramon Octavio Marino Parra</t>
+  </si>
+  <si>
+    <t>Hermes Alexander Alvarado Hernandez</t>
+  </si>
+  <si>
+    <t>Edward Felipe Gutierrez Herrera</t>
+  </si>
+  <si>
+    <t>Edinson Guzmán Salcedo</t>
+  </si>
+  <si>
+    <t>de Velasquez</t>
+  </si>
+  <si>
+    <t>Miguel Pacheco Gonzalez</t>
+  </si>
+  <si>
+    <t>Edwin Ossa Moncada</t>
+  </si>
+  <si>
+    <t>Carlos Andres Serna Carvajal</t>
+  </si>
+  <si>
+    <t>Juan Manzo Ramirez</t>
+  </si>
+  <si>
+    <t>Milton Giraldo Salazar</t>
+  </si>
+  <si>
+    <t>Herman Hochkofler, Heinrich</t>
+  </si>
+  <si>
+    <t>Juan Daniel Duenas Rivera</t>
+  </si>
+  <si>
+    <t>Fabio Leonardo Montañez Rincón</t>
+  </si>
+  <si>
+    <t>Atehortua Londoño</t>
+  </si>
+  <si>
+    <t>Jhon Edisson Alba Malagon</t>
+  </si>
+  <si>
+    <t>Julian Dario Betancur Restrepo</t>
+  </si>
+  <si>
+    <t>Ramirez, Cano</t>
+  </si>
+  <si>
+    <t>Rolando Arturo Garcia Abello</t>
+  </si>
+  <si>
+    <t>Daniel Jose Lema Guanziroli</t>
+  </si>
+  <si>
+    <t>Velez Loaiza</t>
+  </si>
+  <si>
+    <t>Mario Alberto Manzano Espinosa</t>
+  </si>
+  <si>
+    <t>Diego Fernando Mongua Otalora</t>
+  </si>
+  <si>
+    <t>Oscar Monsalve Rincon</t>
+  </si>
+  <si>
+    <t>Jorge Ivan Posada Gamez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Luis Rangel </t>
+  </si>
+  <si>
+    <t>Kevin Rincon Mendez</t>
+  </si>
+  <si>
+    <t>Efrain Ricardo Valbuena Benincore</t>
+  </si>
+  <si>
+    <t>Alexis Velasquez Quintero</t>
+  </si>
+  <si>
+    <t>Lucio Zambrano</t>
+  </si>
+  <si>
+    <t>file system|fiesystem| FS |filesystem.?|file(?:\\W+)system|%\\W+(?:\\w+\\W+){0,3}?FS\\W+(?:\\w+\\W+){0,3}?\\/|depuración del FS</t>
   </si>
 </sst>
 </file>
@@ -691,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>53</v>
@@ -727,7 +1798,7 @@
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>465</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>72</v>
@@ -1135,10 +2206,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288BE82C-A02D-4CD7-B0E0-D2D396C52212}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
@@ -1170,7 +2241,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -1178,7 +2249,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1186,10 +2257,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1210,7 +2281,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -1226,10 +2297,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1250,7 +2321,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -1259,4 +2330,4103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C237FB-51AB-4897-8AFA-D875129DEE62}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A19">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDE2669-D021-460D-9206-BF0C63BEB5F5}">
+  <dimension ref="A1:B372"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>379</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>382</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>394</v>
+      </c>
+      <c r="B74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>403</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>404</v>
+      </c>
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>406</v>
+      </c>
+      <c r="B89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>408</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>413</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>420</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>421</v>
+      </c>
+      <c r="B109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>424</v>
+      </c>
+      <c r="B113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>425</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>426</v>
+      </c>
+      <c r="B115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>427</v>
+      </c>
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>428</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>429</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>430</v>
+      </c>
+      <c r="B122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>431</v>
+      </c>
+      <c r="B123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>433</v>
+      </c>
+      <c r="B129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>435</v>
+      </c>
+      <c r="B131" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>436</v>
+      </c>
+      <c r="B133" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>434</v>
+      </c>
+      <c r="B136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>432</v>
+      </c>
+      <c r="B137" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>437</v>
+      </c>
+      <c r="B138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>439</v>
+      </c>
+      <c r="B142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>441</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>414</v>
+      </c>
+      <c r="B151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>372</v>
+      </c>
+      <c r="B158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>359</v>
+      </c>
+      <c r="B159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>437</v>
+      </c>
+      <c r="B161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>438</v>
+      </c>
+      <c r="B162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>440</v>
+      </c>
+      <c r="B166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>441</v>
+      </c>
+      <c r="B167" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>130</v>
+      </c>
+      <c r="B170" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>131</v>
+      </c>
+      <c r="B171" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>144</v>
+      </c>
+      <c r="B184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>134</v>
+      </c>
+      <c r="B186" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>435</v>
+      </c>
+      <c r="B189" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>373</v>
+      </c>
+      <c r="B191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>434</v>
+      </c>
+      <c r="B192" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>132</v>
+      </c>
+      <c r="B193" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>179</v>
+      </c>
+      <c r="B194" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>138</v>
+      </c>
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>146</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>362</v>
+      </c>
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>360</v>
+      </c>
+      <c r="B201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>156</v>
+      </c>
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>189</v>
+      </c>
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>442</v>
+      </c>
+      <c r="B206" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>137</v>
+      </c>
+      <c r="B207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>353</v>
+      </c>
+      <c r="B208" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>160</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>135</v>
+      </c>
+      <c r="B212" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>163</v>
+      </c>
+      <c r="B213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>407</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>384</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>158</v>
+      </c>
+      <c r="B217" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>133</v>
+      </c>
+      <c r="B218" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>159</v>
+      </c>
+      <c r="B219" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>178</v>
+      </c>
+      <c r="B220" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>151</v>
+      </c>
+      <c r="B221" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>430</v>
+      </c>
+      <c r="B222" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>359</v>
+      </c>
+      <c r="B223" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>380</v>
+      </c>
+      <c r="B224" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>186</v>
+      </c>
+      <c r="B225" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>153</v>
+      </c>
+      <c r="B226" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>444</v>
+      </c>
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>150</v>
+      </c>
+      <c r="B228" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>361</v>
+      </c>
+      <c r="B229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>161</v>
+      </c>
+      <c r="B230" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>195</v>
+      </c>
+      <c r="B231" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>130</v>
+      </c>
+      <c r="B232" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>445</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>154</v>
+      </c>
+      <c r="B234" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>184</v>
+      </c>
+      <c r="B235" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>129</v>
+      </c>
+      <c r="B236" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>428</v>
+      </c>
+      <c r="B237" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>446</v>
+      </c>
+      <c r="B238" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>152</v>
+      </c>
+      <c r="B239" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>347</v>
+      </c>
+      <c r="B240" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>349</v>
+      </c>
+      <c r="B241" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>350</v>
+      </c>
+      <c r="B242" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>351</v>
+      </c>
+      <c r="B243" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>352</v>
+      </c>
+      <c r="B244" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>354</v>
+      </c>
+      <c r="B245" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>355</v>
+      </c>
+      <c r="B246" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>356</v>
+      </c>
+      <c r="B247" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>170</v>
+      </c>
+      <c r="B248" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>357</v>
+      </c>
+      <c r="B249" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>169</v>
+      </c>
+      <c r="B250" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>358</v>
+      </c>
+      <c r="B251" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>166</v>
+      </c>
+      <c r="B252" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>363</v>
+      </c>
+      <c r="B253" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>364</v>
+      </c>
+      <c r="B254" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>365</v>
+      </c>
+      <c r="B255" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>366</v>
+      </c>
+      <c r="B256" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>367</v>
+      </c>
+      <c r="B257" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>368</v>
+      </c>
+      <c r="B258" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>369</v>
+      </c>
+      <c r="B259" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>370</v>
+      </c>
+      <c r="B260" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>371</v>
+      </c>
+      <c r="B261" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>374</v>
+      </c>
+      <c r="B262" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>375</v>
+      </c>
+      <c r="B263" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>136</v>
+      </c>
+      <c r="B264" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>376</v>
+      </c>
+      <c r="B265" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>377</v>
+      </c>
+      <c r="B266" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>378</v>
+      </c>
+      <c r="B267" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>127</v>
+      </c>
+      <c r="B268" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>381</v>
+      </c>
+      <c r="B269" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>382</v>
+      </c>
+      <c r="B270" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>385</v>
+      </c>
+      <c r="B271" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>386</v>
+      </c>
+      <c r="B272" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>388</v>
+      </c>
+      <c r="B273" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>174</v>
+      </c>
+      <c r="B274" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>389</v>
+      </c>
+      <c r="B275" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>390</v>
+      </c>
+      <c r="B276" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>391</v>
+      </c>
+      <c r="B277" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>392</v>
+      </c>
+      <c r="B278" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>393</v>
+      </c>
+      <c r="B279" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>394</v>
+      </c>
+      <c r="B280" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>395</v>
+      </c>
+      <c r="B281" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>396</v>
+      </c>
+      <c r="B282" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>397</v>
+      </c>
+      <c r="B283" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>128</v>
+      </c>
+      <c r="B284" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>398</v>
+      </c>
+      <c r="B285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>399</v>
+      </c>
+      <c r="B286" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>400</v>
+      </c>
+      <c r="B287" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>401</v>
+      </c>
+      <c r="B288" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>402</v>
+      </c>
+      <c r="B289" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>403</v>
+      </c>
+      <c r="B290" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>404</v>
+      </c>
+      <c r="B291" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>405</v>
+      </c>
+      <c r="B292" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>406</v>
+      </c>
+      <c r="B293" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>155</v>
+      </c>
+      <c r="B294" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>408</v>
+      </c>
+      <c r="B295" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>171</v>
+      </c>
+      <c r="B296" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>409</v>
+      </c>
+      <c r="B297" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>410</v>
+      </c>
+      <c r="B298" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>411</v>
+      </c>
+      <c r="B299" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>412</v>
+      </c>
+      <c r="B300" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>413</v>
+      </c>
+      <c r="B301" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>187</v>
+      </c>
+      <c r="B302" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>175</v>
+      </c>
+      <c r="B303" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>415</v>
+      </c>
+      <c r="B305" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>416</v>
+      </c>
+      <c r="B306" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>417</v>
+      </c>
+      <c r="B307" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>418</v>
+      </c>
+      <c r="B308" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>419</v>
+      </c>
+      <c r="B309" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>420</v>
+      </c>
+      <c r="B310" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>421</v>
+      </c>
+      <c r="B311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>422</v>
+      </c>
+      <c r="B312" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>423</v>
+      </c>
+      <c r="B313" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>424</v>
+      </c>
+      <c r="B314" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>425</v>
+      </c>
+      <c r="B315" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>426</v>
+      </c>
+      <c r="B316" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>164</v>
+      </c>
+      <c r="B317" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>427</v>
+      </c>
+      <c r="B318" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>429</v>
+      </c>
+      <c r="B319" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>199</v>
+      </c>
+      <c r="B320" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>431</v>
+      </c>
+      <c r="B321" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>194</v>
+      </c>
+      <c r="B322" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>432</v>
+      </c>
+      <c r="B323" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>176</v>
+      </c>
+      <c r="B324" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>433</v>
+      </c>
+      <c r="B325" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>177</v>
+      </c>
+      <c r="B326" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>436</v>
+      </c>
+      <c r="B327" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>438</v>
+      </c>
+      <c r="B328" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>143</v>
+      </c>
+      <c r="B329" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>439</v>
+      </c>
+      <c r="B330" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>142</v>
+      </c>
+      <c r="B331" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>440</v>
+      </c>
+      <c r="B332" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>441</v>
+      </c>
+      <c r="B333" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>167</v>
+      </c>
+      <c r="B334" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>165</v>
+      </c>
+      <c r="B335" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>190</v>
+      </c>
+      <c r="B336" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>135</v>
+      </c>
+      <c r="B337" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>447</v>
+      </c>
+      <c r="B338" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>448</v>
+      </c>
+      <c r="B339" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>447</v>
+      </c>
+      <c r="B340" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>449</v>
+      </c>
+      <c r="B341" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>147</v>
+      </c>
+      <c r="B342" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>450</v>
+      </c>
+      <c r="B343" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>145</v>
+      </c>
+      <c r="B344" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>451</v>
+      </c>
+      <c r="B345" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>192</v>
+      </c>
+      <c r="B346" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>452</v>
+      </c>
+      <c r="B347" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>141</v>
+      </c>
+      <c r="B348" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>453</v>
+      </c>
+      <c r="B349" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>162</v>
+      </c>
+      <c r="B350" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>373</v>
+      </c>
+      <c r="B351" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>173</v>
+      </c>
+      <c r="B352" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>191</v>
+      </c>
+      <c r="B353" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>454</v>
+      </c>
+      <c r="B354" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>455</v>
+      </c>
+      <c r="B355" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>196</v>
+      </c>
+      <c r="B356" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>193</v>
+      </c>
+      <c r="B357" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>456</v>
+      </c>
+      <c r="B359" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>180</v>
+      </c>
+      <c r="B360" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>457</v>
+      </c>
+      <c r="B361" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>458</v>
+      </c>
+      <c r="B362" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>148</v>
+      </c>
+      <c r="B363" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>459</v>
+      </c>
+      <c r="B364" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>460</v>
+      </c>
+      <c r="B365" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>140</v>
+      </c>
+      <c r="B366" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>461</v>
+      </c>
+      <c r="B367" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>149</v>
+      </c>
+      <c r="B368" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>462</v>
+      </c>
+      <c r="B369" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>463</v>
+      </c>
+      <c r="B370" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>181</v>
+      </c>
+      <c r="B371" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>464</v>
+      </c>
+      <c r="B372" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B14FF56-72BC-425D-8E58-5081604C9A15}">
+  <dimension ref="A1:B117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="78.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>307</v>
+      </c>
+      <c r="B85" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>315</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>321</v>
+      </c>
+      <c r="B98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>327</v>
+      </c>
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>333</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>334</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>335</v>
+      </c>
+      <c r="B111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>336</v>
+      </c>
+      <c r="B112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A94" r:id="rId1" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=9296D6D63BB93F47B861666812B5E078" xr:uid="{F852D152-37E5-4DF2-95E7-22CEC9704A77}"/>
+    <hyperlink ref="A93" r:id="rId2" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=630999E38B11364F9289CABC87AF6D9C" xr:uid="{6CED7003-5E0D-46EC-AE26-313C8093B522}"/>
+    <hyperlink ref="A92" r:id="rId3" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=71638FAFD1908D46BFA491CCF8937F7A" xr:uid="{CE423579-4927-436A-9A03-0D4F41A328CE}"/>
+    <hyperlink ref="A91" r:id="rId4" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=15F6294A9C0FA648B45018B30E9EBF49" xr:uid="{1E0469D4-3C00-4C5A-A091-4C10928A00A2}"/>
+    <hyperlink ref="A90" r:id="rId5" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=5EB2B15C2F98E149938974D55A9226A2" xr:uid="{6CD1BFC8-F12D-4F54-8D63-9047DF71DC0D}"/>
+    <hyperlink ref="A89" r:id="rId6" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=C16FE1BAFAC80346A81229678F1C94EE" xr:uid="{812D1ABE-E8CC-4049-B2F8-BFE3B67AF5D3}"/>
+    <hyperlink ref="A88" r:id="rId7" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=C9DFE0DDD42B954184BE3F2B5BC3D8AD" xr:uid="{04BAB195-2FE4-4C0B-8058-4A6151F943BF}"/>
+    <hyperlink ref="A87" r:id="rId8" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=DAB35ECF38EBE6438FAA3D6802ED4C9C" xr:uid="{5BB462ED-BE4E-46E5-8820-9DD5D590CD39}"/>
+    <hyperlink ref="A86" r:id="rId9" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=CA7CC4A1E827344492526707900E9795" xr:uid="{1D1C1804-1FC2-4F3E-BF5F-39DDD4E2EC04}"/>
+    <hyperlink ref="A85" r:id="rId10" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=60EFCB2A2AD3E64681545F006B7D337C" xr:uid="{760890A8-920B-4A69-8FB6-A730CEF8FD9C}"/>
+    <hyperlink ref="A84" r:id="rId11" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=8BF567820466ED4391490E863FA24EC0" xr:uid="{90A1AF39-EA82-42C8-B58F-1683733C7F16}"/>
+    <hyperlink ref="A83" r:id="rId12" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=08A76625FE893C4BB3F63AEE7F74217B" xr:uid="{679CC5CD-0559-4EEE-84A7-EBCF19280068}"/>
+    <hyperlink ref="A82" r:id="rId13" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=E5815D523AD134469A5A34AC8106E181" xr:uid="{75BEF737-E24B-47E4-B002-1E6248E5747A}"/>
+    <hyperlink ref="A81" r:id="rId14" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=382BCF3910B52B44B630091F005B42D3" xr:uid="{F7D2D726-3C3E-4501-B868-C47FE3DD19E0}"/>
+    <hyperlink ref="A80" r:id="rId15" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=5A7A30B107777845BD8242234FA4E43E" xr:uid="{8AFD6CB4-3DB4-4F02-B64D-8E4446B65E78}"/>
+    <hyperlink ref="A117" r:id="rId16" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=54BC7F078F42E242BF9AC710540CAD8D" xr:uid="{3BD19DB9-AC7C-47C1-BC37-1652F23E9508}"/>
+    <hyperlink ref="A116" r:id="rId17" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=9296D6D63BB93F47B861666812B5E078" xr:uid="{878F446B-3EBC-4437-B225-F4ED806C30BB}"/>
+    <hyperlink ref="A115" r:id="rId18" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=630999E38B11364F9289CABC87AF6D9C" xr:uid="{E5DA2602-B0F2-409B-82C7-FB0FA828D1B1}"/>
+    <hyperlink ref="A114" r:id="rId19" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=71638FAFD1908D46BFA491CCF8937F7A" xr:uid="{C77F0067-0CAE-48F9-8820-D27DCBE0AEC8}"/>
+    <hyperlink ref="A113" r:id="rId20" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=15F6294A9C0FA648B45018B30E9EBF49" xr:uid="{41FFEA0F-F514-4F29-BDCA-AF03E2129120}"/>
+    <hyperlink ref="A112" r:id="rId21" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=5EB2B15C2F98E149938974D55A9226A2" xr:uid="{66AA08BC-618E-4C31-96A1-B360EC53048A}"/>
+    <hyperlink ref="A111" r:id="rId22" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=C16FE1BAFAC80346A81229678F1C94EE" xr:uid="{8BEB5CB2-651C-4E24-9E3D-B1925FF5D772}"/>
+    <hyperlink ref="A110" r:id="rId23" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=C9DFE0DDD42B954184BE3F2B5BC3D8AD" xr:uid="{CB80A278-F341-4F7A-A2F6-EE65E0667C7B}"/>
+    <hyperlink ref="A109" r:id="rId24" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=DAB35ECF38EBE6438FAA3D6802ED4C9C" xr:uid="{2E9582D1-DACA-4240-A8D7-E63B5F917BC1}"/>
+    <hyperlink ref="A108" r:id="rId25" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=CA7CC4A1E827344492526707900E9795" xr:uid="{A022B296-CBEF-4AD8-B99D-5DD15081E507}"/>
+    <hyperlink ref="A107" r:id="rId26" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=60EFCB2A2AD3E64681545F006B7D337C" xr:uid="{6B687296-1D20-43EC-9BAB-FCD821A57191}"/>
+    <hyperlink ref="A106" r:id="rId27" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=8BF567820466ED4391490E863FA24EC0" xr:uid="{18D93519-05ED-4838-9D1F-1B4FDAC26860}"/>
+    <hyperlink ref="A105" r:id="rId28" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=08A76625FE893C4BB3F63AEE7F74217B" xr:uid="{7E039474-BC33-4F82-8995-387873E767DC}"/>
+    <hyperlink ref="A104" r:id="rId29" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=E5815D523AD134469A5A34AC8106E181" xr:uid="{B0EEAA77-98B2-4962-B3AD-2517C38A41C1}"/>
+    <hyperlink ref="A103" r:id="rId30" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=382BCF3910B52B44B630091F005B42D3" xr:uid="{BE1831E8-D854-41A3-BCDD-48426F67E4E1}"/>
+    <hyperlink ref="A102" r:id="rId31" display="https://usd/CAisd/pdmweb.exe?OP=SEARCH+FACTORY=cnt+SKIPLIST=1+QBE.EQ.id=5A7A30B107777845BD8242234FA4E43E" xr:uid="{24D6432C-C369-4066-89C4-7DA8050CA91C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reportes/condiciones.xlsx
+++ b/reportes/condiciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B33D75-E1FF-41F2-BBFF-E25784452773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B85E8-1722-45FE-8806-32431E0F8F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="PLATAFORMAS" sheetId="3" r:id="rId3"/>
     <sheet name="ASIGNATARIOS" sheetId="4" r:id="rId4"/>
     <sheet name="GRUPOS" sheetId="5" r:id="rId5"/>
+    <sheet name="ALERTAS" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PLATAFORMAS!$A$1:$A$19</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="471">
   <si>
     <t>pagina de contingencia</t>
   </si>
@@ -1425,6 +1426,21 @@
   </si>
   <si>
     <t>file system|fiesystem| FS |filesystem.?|file(?:\\W+)system|%\\W+(?:\\w+\\W+){0,3}?FS\\W+(?:\\w+\\W+){0,3}?\\/|depuración del FS</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>DISCO-NO-DISPONIBLE</t>
+  </si>
+  <si>
+    <t>MEMORIA-FISICA|MEMORIA|MEMORIA-SWAP</t>
+  </si>
+  <si>
+    <t>FILESYSTEM|FILESYSTEM-USADO</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2222,7 +2238,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2337,7 +2353,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6429,4 +6445,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA01E831-2BE4-480A-88A0-2115452DDA85}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>